--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
@@ -540,10 +540,10 @@
         <v>41.389792</v>
       </c>
       <c r="I2">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="J2">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N2">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q2">
-        <v>64.50431684485687</v>
+        <v>25.46532706448355</v>
       </c>
       <c r="R2">
-        <v>580.5388516037119</v>
+        <v>229.187943580352</v>
       </c>
       <c r="S2">
-        <v>0.03492649194632279</v>
+        <v>0.01367368806697936</v>
       </c>
       <c r="T2">
-        <v>0.03492649194632279</v>
+        <v>0.01367368806697936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>41.389792</v>
       </c>
       <c r="I3">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="J3">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>248.871689</v>
       </c>
       <c r="O3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q3">
         <v>1144.527493599854</v>
@@ -632,10 +632,10 @@
         <v>10300.74744239869</v>
       </c>
       <c r="S3">
-        <v>0.6197155825044226</v>
+        <v>0.6145576646998195</v>
       </c>
       <c r="T3">
-        <v>0.6197155825044226</v>
+        <v>0.6145576646998195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>41.389792</v>
       </c>
       <c r="I4">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="J4">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N4">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q4">
-        <v>542.8676794772942</v>
+        <v>575.2962917807503</v>
       </c>
       <c r="R4">
-        <v>4885.809115295648</v>
+        <v>5177.666626026752</v>
       </c>
       <c r="S4">
-        <v>0.2939410036817472</v>
+        <v>0.3089071669875078</v>
       </c>
       <c r="T4">
-        <v>0.2939410036817471</v>
+        <v>0.3089071669875078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7478296666666666</v>
+        <v>0.9254496666666667</v>
       </c>
       <c r="H5">
-        <v>2.243489</v>
+        <v>2.776349</v>
       </c>
       <c r="I5">
-        <v>0.05141692186750751</v>
+        <v>0.0628614802456932</v>
       </c>
       <c r="J5">
-        <v>0.05141692186750751</v>
+        <v>0.06286148024569319</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N5">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q5">
-        <v>3.496386869833777</v>
+        <v>1.708165997310445</v>
       </c>
       <c r="R5">
-        <v>31.467481828504</v>
+        <v>15.373493975794</v>
       </c>
       <c r="S5">
-        <v>0.001893152796954471</v>
+        <v>0.0009172051454394866</v>
       </c>
       <c r="T5">
-        <v>0.001893152796954471</v>
+        <v>0.0009172051454394863</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7478296666666666</v>
+        <v>0.9254496666666667</v>
       </c>
       <c r="H6">
-        <v>2.243489</v>
+        <v>2.776349</v>
       </c>
       <c r="I6">
-        <v>0.05141692186750751</v>
+        <v>0.0628614802456932</v>
       </c>
       <c r="J6">
-        <v>0.05141692186750751</v>
+        <v>0.06286148024569319</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>248.871689</v>
       </c>
       <c r="O6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q6">
-        <v>62.03787740921344</v>
+        <v>76.77274054260678</v>
       </c>
       <c r="R6">
-        <v>558.340896682921</v>
+        <v>690.9546648834611</v>
       </c>
       <c r="S6">
-        <v>0.03359101424035339</v>
+        <v>0.04122336632741909</v>
       </c>
       <c r="T6">
-        <v>0.03359101424035339</v>
+        <v>0.04122336632741908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7478296666666666</v>
+        <v>0.9254496666666667</v>
       </c>
       <c r="H7">
-        <v>2.243489</v>
+        <v>2.776349</v>
       </c>
       <c r="I7">
-        <v>0.05141692186750751</v>
+        <v>0.0628614802456932</v>
       </c>
       <c r="J7">
-        <v>0.05141692186750751</v>
+        <v>0.06286148024569319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N7">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q7">
-        <v>29.42555660494344</v>
+        <v>38.58978765559378</v>
       </c>
       <c r="R7">
-        <v>264.830009444491</v>
+        <v>347.308088900344</v>
       </c>
       <c r="S7">
-        <v>0.01593275483019966</v>
+        <v>0.02072090877283463</v>
       </c>
       <c r="T7">
-        <v>0.01593275483019966</v>
+        <v>0.02072090877283462</v>
       </c>
     </row>
   </sheetData>
